--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nrg4-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nrg4-Erbb4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.720637666666667</v>
+        <v>3.166243</v>
       </c>
       <c r="H2">
-        <v>5.161913</v>
+        <v>9.498729000000001</v>
       </c>
       <c r="I2">
-        <v>0.5545197613569699</v>
+        <v>0.6961012017413651</v>
       </c>
       <c r="J2">
-        <v>0.5545197613569698</v>
+        <v>0.6961012017413652</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01220046814844444</v>
+        <v>0.02245077369866667</v>
       </c>
       <c r="R2">
-        <v>0.109804213336</v>
+        <v>0.202056963288</v>
       </c>
       <c r="S2">
-        <v>0.5545197613569699</v>
+        <v>0.6961012017413651</v>
       </c>
       <c r="T2">
-        <v>0.5545197613569698</v>
+        <v>0.6961012017413652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9879196666666669</v>
+        <v>0.9879196666666666</v>
       </c>
       <c r="H3">
         <v>2.963759</v>
       </c>
       <c r="I3">
-        <v>0.3183825324835138</v>
+        <v>0.2171949743562309</v>
       </c>
       <c r="J3">
-        <v>0.3183825324835137</v>
+        <v>0.2171949743562309</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.007005009049777779</v>
+        <v>0.007005009049777777</v>
       </c>
       <c r="R3">
         <v>0.063045081448</v>
       </c>
       <c r="S3">
-        <v>0.3183825324835138</v>
+        <v>0.2171949743562309</v>
       </c>
       <c r="T3">
-        <v>0.3183825324835137</v>
+        <v>0.2171949743562309</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.183127</v>
       </c>
       <c r="I4">
-        <v>0.1270977061595164</v>
+        <v>0.0867038239024038</v>
       </c>
       <c r="J4">
-        <v>0.1270977061595163</v>
+        <v>0.0867038239024038</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -694,10 +694,10 @@
         <v>0.025167477544</v>
       </c>
       <c r="S4">
-        <v>0.1270977061595164</v>
+        <v>0.0867038239024038</v>
       </c>
       <c r="T4">
-        <v>0.1270977061595163</v>
+        <v>0.0867038239024038</v>
       </c>
     </row>
   </sheetData>
